--- a/data/lrp_data_legend.xlsx
+++ b/data/lrp_data_legend.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/rlp_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE11E420-0056-B140-B08F-FD3E3C18C4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C3FF89-0660-D04C-BB9B-11D0BA9F5F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17960" yWindow="3040" windowWidth="28040" windowHeight="17440" xr2:uid="{5B21510A-2186-C449-9A1B-808F36C921CB}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{5B21510A-2186-C449-9A1B-808F36C921CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,12 +249,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -270,13 +276,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -614,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D106CA5-723D-F641-B630-1737F9CADC3E}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -782,7 +789,6 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -791,7 +797,9 @@
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
@@ -799,7 +807,9 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -962,22 +972,15 @@
       <c r="F19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -1138,7 +1141,7 @@
     <hyperlink ref="G18" r:id="rId6" xr:uid="{4B94E60D-3BD3-6E41-A8A1-3CDE51CCC7D6}"/>
     <hyperlink ref="G15" r:id="rId7" xr:uid="{13B4D5BA-11C5-FE49-A4DC-7D70FB1A4738}"/>
     <hyperlink ref="G11" r:id="rId8" xr:uid="{B12E0E92-A85D-5E47-AD12-E7CBDD4B2BDD}"/>
-    <hyperlink ref="F20" r:id="rId9" xr:uid="{E6D0ED55-F5A5-6A4D-8DDB-9088BC250DB8}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{E6D0ED55-F5A5-6A4D-8DDB-9088BC250DB8}"/>
     <hyperlink ref="F21" r:id="rId10" xr:uid="{0CC72EB1-473A-6E49-81BA-3FB093A4AB85}"/>
     <hyperlink ref="F22" r:id="rId11" xr:uid="{2F42F296-9E54-8D48-A861-F71A0454CDFE}"/>
   </hyperlinks>

--- a/data/lrp_data_legend.xlsx
+++ b/data/lrp_data_legend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/rlp_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C3FF89-0660-D04C-BB9B-11D0BA9F5F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40AFDE3-A7FA-064E-8453-6E769A8DCD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{5B21510A-2186-C449-9A1B-808F36C921CB}"/>
+    <workbookView xWindow="14220" yWindow="3200" windowWidth="20340" windowHeight="17440" xr2:uid="{5B21510A-2186-C449-9A1B-808F36C921CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
     <t>https://string-db.org/cgi/download?sessionId=bGZ5zi4vdyus</t>
   </si>
   <si>
-    <t>tot=25 + 2</t>
+    <t>tot=20 + 2</t>
   </si>
 </sst>
 </file>
@@ -249,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +259,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -284,6 +290,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -621,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D106CA5-723D-F641-B630-1737F9CADC3E}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="134" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,7 +751,7 @@
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -815,7 +823,7 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -852,7 +860,7 @@
       <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="2"/>
@@ -871,7 +879,7 @@
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -894,7 +902,7 @@
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="2"/>
@@ -945,7 +953,7 @@
       <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="2"/>

--- a/data/lrp_data_legend.xlsx
+++ b/data/lrp_data_legend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/rlp_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40AFDE3-A7FA-064E-8453-6E769A8DCD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D71566-2055-204E-95AD-49D5CC3F73D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="3200" windowWidth="20340" windowHeight="17440" xr2:uid="{5B21510A-2186-C449-9A1B-808F36C921CB}"/>
+    <workbookView xWindow="11060" yWindow="3200" windowWidth="23500" windowHeight="17440" xr2:uid="{5B21510A-2186-C449-9A1B-808F36C921CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>Number</t>
   </si>
@@ -207,6 +207,15 @@
   </si>
   <si>
     <t>tot=20 + 2</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>CellChatDB.humanv2-2023-Jin-LR-pairs_new.xlsx</t>
+  </si>
+  <si>
+    <t>CellChat: Use ligand.symbol and receptor.symbol instead of ligand and receptor</t>
   </si>
 </sst>
 </file>
@@ -627,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D106CA5-723D-F641-B630-1737F9CADC3E}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,11 +648,12 @@
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="106.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,13 +670,16 @@
         <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -677,12 +690,13 @@
         <v>24</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -692,12 +706,13 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -707,12 +722,13 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -724,12 +740,13 @@
         <v>25</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -739,12 +756,13 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -760,14 +778,15 @@
       <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -779,12 +798,13 @@
         <v>30</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -794,11 +814,12 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -812,14 +833,15 @@
         <v>27</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -831,14 +853,15 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -848,12 +871,13 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -864,15 +888,20 @@
         <v>32</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="E13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -888,14 +917,15 @@
       <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -907,14 +937,15 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -926,12 +957,13 @@
         <v>31</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -941,12 +973,13 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="2"/>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -958,14 +991,15 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -977,11 +1011,12 @@
         <v>29</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -989,8 +1024,9 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1002,12 +1038,13 @@
         <v>51</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1019,12 +1056,13 @@
         <v>54</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1034,8 +1072,9 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
@@ -1045,8 +1084,9 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1054,16 +1094,18 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1071,8 +1113,9 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1080,8 +1123,9 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1089,8 +1133,9 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1098,60 +1143,66 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{7C834F6F-5C2E-3749-9F99-BDE1308E5078}"/>
-    <hyperlink ref="F3:F19" r:id="rId2" display="https://github.com/LewisLabUCSD/Ligand-Receptor-Pairs" xr:uid="{489699E4-D099-884C-BB7D-2214767DFAA7}"/>
-    <hyperlink ref="G7" r:id="rId3" xr:uid="{4336A18E-922E-5940-AE80-3526887C21C9}"/>
-    <hyperlink ref="G13" r:id="rId4" xr:uid="{ADADD161-F48B-7F40-A7CB-B4A82DDACDA0}"/>
-    <hyperlink ref="G14" r:id="rId5" xr:uid="{854169A9-621E-814E-A5F0-F6EB08B726B9}"/>
-    <hyperlink ref="G18" r:id="rId6" xr:uid="{4B94E60D-3BD3-6E41-A8A1-3CDE51CCC7D6}"/>
-    <hyperlink ref="G15" r:id="rId7" xr:uid="{13B4D5BA-11C5-FE49-A4DC-7D70FB1A4738}"/>
-    <hyperlink ref="G11" r:id="rId8" xr:uid="{B12E0E92-A85D-5E47-AD12-E7CBDD4B2BDD}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{E6D0ED55-F5A5-6A4D-8DDB-9088BC250DB8}"/>
-    <hyperlink ref="F21" r:id="rId10" xr:uid="{0CC72EB1-473A-6E49-81BA-3FB093A4AB85}"/>
-    <hyperlink ref="F22" r:id="rId11" xr:uid="{2F42F296-9E54-8D48-A861-F71A0454CDFE}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{7C834F6F-5C2E-3749-9F99-BDE1308E5078}"/>
+    <hyperlink ref="G3:G19" r:id="rId2" display="https://github.com/LewisLabUCSD/Ligand-Receptor-Pairs" xr:uid="{489699E4-D099-884C-BB7D-2214767DFAA7}"/>
+    <hyperlink ref="H7" r:id="rId3" xr:uid="{4336A18E-922E-5940-AE80-3526887C21C9}"/>
+    <hyperlink ref="H14" r:id="rId4" xr:uid="{854169A9-621E-814E-A5F0-F6EB08B726B9}"/>
+    <hyperlink ref="H18" r:id="rId5" xr:uid="{4B94E60D-3BD3-6E41-A8A1-3CDE51CCC7D6}"/>
+    <hyperlink ref="H15" r:id="rId6" xr:uid="{13B4D5BA-11C5-FE49-A4DC-7D70FB1A4738}"/>
+    <hyperlink ref="H11" r:id="rId7" xr:uid="{B12E0E92-A85D-5E47-AD12-E7CBDD4B2BDD}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{E6D0ED55-F5A5-6A4D-8DDB-9088BC250DB8}"/>
+    <hyperlink ref="G21" r:id="rId9" xr:uid="{0CC72EB1-473A-6E49-81BA-3FB093A4AB85}"/>
+    <hyperlink ref="G22" r:id="rId10" xr:uid="{2F42F296-9E54-8D48-A861-F71A0454CDFE}"/>
+    <hyperlink ref="H13" r:id="rId11" xr:uid="{ADADD161-F48B-7F40-A7CB-B4A82DDACDA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/lrp_data_legend.xlsx
+++ b/data/lrp_data_legend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/rlp_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D71566-2055-204E-95AD-49D5CC3F73D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A086CC8-2031-4640-959C-AFA14802D7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11060" yWindow="3200" windowWidth="23500" windowHeight="17440" xr2:uid="{5B21510A-2186-C449-9A1B-808F36C921CB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>Number</t>
   </si>
@@ -206,16 +206,31 @@
     <t>https://string-db.org/cgi/download?sessionId=bGZ5zi4vdyus</t>
   </si>
   <si>
-    <t>tot=20 + 2</t>
-  </si>
-  <si>
     <t>Info</t>
   </si>
   <si>
     <t>CellChatDB.humanv2-2023-Jin-LR-pairs_new.xlsx</t>
   </si>
   <si>
-    <t>CellChat: Use ligand.symbol and receptor.symbol instead of ligand and receptor</t>
+    <t>check  ligand or receptor in column 1 or 2</t>
+  </si>
+  <si>
+    <t>Fine but are these different receptors or complexes: BMPR 1A/1B/2</t>
+  </si>
+  <si>
+    <t>CHECK LIGAND AND RECEPTOR POSITION</t>
+  </si>
+  <si>
+    <t>CellChat: Use ligand.symbol and receptor.symbol instead of ligand and receptor; JIN: change to ligand/receptor_symbol</t>
+  </si>
+  <si>
+    <t>USE METABOLITES SO DO NOT USE</t>
+  </si>
+  <si>
+    <t>VENTO: check  ligand or receptor in column 1 or 2, RECEPTOR UNDER LIGAND</t>
+  </si>
+  <si>
+    <t>tot=19</t>
   </si>
 </sst>
 </file>
@@ -258,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +292,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -291,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -301,6 +322,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -638,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D106CA5-723D-F641-B630-1737F9CADC3E}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,7 +693,7 @@
         <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -690,7 +713,9 @@
         <v>24</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
@@ -778,7 +803,9 @@
       <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
@@ -833,7 +860,9 @@
         <v>27</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -889,10 +918,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>4</v>
@@ -957,7 +986,9 @@
         <v>31</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="G16" s="3" t="s">
         <v>4</v>
       </c>
@@ -983,7 +1014,7 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -991,7 +1022,9 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1030,7 +1063,7 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="2"/>
@@ -1048,7 +1081,7 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="2"/>
@@ -1076,7 +1109,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>

--- a/data/lrp_data_legend.xlsx
+++ b/data/lrp_data_legend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/rlp_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A086CC8-2031-4640-959C-AFA14802D7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD854F4-EE06-0540-B0DE-1FD60392D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11060" yWindow="3200" windowWidth="23500" windowHeight="17440" xr2:uid="{5B21510A-2186-C449-9A1B-808F36C921CB}"/>
   </bookViews>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D106CA5-723D-F641-B630-1737F9CADC3E}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/lrp_data_legend.xlsx
+++ b/data/lrp_data_legend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/rlp_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD854F4-EE06-0540-B0DE-1FD60392D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B1D632-C6FB-5D45-90E8-E7AFF0F1B347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11060" yWindow="3200" windowWidth="23500" windowHeight="17440" xr2:uid="{5B21510A-2186-C449-9A1B-808F36C921CB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>Number</t>
   </si>
@@ -212,25 +212,56 @@
     <t>CellChatDB.humanv2-2023-Jin-LR-pairs_new.xlsx</t>
   </si>
   <si>
-    <t>check  ligand or receptor in column 1 or 2</t>
-  </si>
-  <si>
-    <t>Fine but are these different receptors or complexes: BMPR 1A/1B/2</t>
-  </si>
-  <si>
-    <t>CHECK LIGAND AND RECEPTOR POSITION</t>
-  </si>
-  <si>
-    <t>CellChat: Use ligand.symbol and receptor.symbol instead of ligand and receptor; JIN: change to ligand/receptor_symbol</t>
-  </si>
-  <si>
     <t>USE METABOLITES SO DO NOT USE</t>
   </si>
   <si>
-    <t>VENTO: check  ligand or receptor in column 1 or 2, RECEPTOR UNDER LIGAND</t>
-  </si>
-  <si>
     <t>tot=19</t>
+  </si>
+  <si>
+    <t>CCIDB_Human.xlsx</t>
+  </si>
+  <si>
+    <t>https://ccidb.sysmed.kr/download</t>
+  </si>
+  <si>
+    <t>REMOVED NON LIGAND-RECEPTOR INTERACTIONS</t>
+  </si>
+  <si>
+    <t>consider ECM?</t>
+  </si>
+  <si>
+    <t>Cell cell comunication CCC</t>
+  </si>
+  <si>
+    <t>CHECK LIGAND RECEPTOR POSITION. CHECK INTERACTIONS!</t>
+  </si>
+  <si>
+    <t>LR PAIRS</t>
+  </si>
+  <si>
+    <t>ligand-receptor pairs</t>
+  </si>
+  <si>
+    <t>ligand-receptor INTERACTIONS</t>
+  </si>
+  <si>
+    <t>intercellular communication signals in the
+multicellular tumor ecosystem</t>
+  </si>
+  <si>
+    <t>incorporates intracellular signaling</t>
+  </si>
+  <si>
+    <t>CHECK DIRECTIONALITY with protein input, complex removed</t>
+  </si>
+  <si>
+    <t>receptor-ligand pairs</t>
+  </si>
+  <si>
+    <t>ligand-receptor interactions and downstream signaling networks</t>
+  </si>
+  <si>
+    <t>REMOVED NON LIGAND-RECEPTOR INTERACTIONS, still neuronal</t>
   </si>
 </sst>
 </file>
@@ -312,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -324,6 +355,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -661,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D106CA5-723D-F641-B630-1737F9CADC3E}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -714,7 +748,7 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
@@ -731,7 +765,9 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
@@ -747,7 +783,9 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
@@ -765,7 +803,9 @@
         <v>25</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
@@ -781,7 +821,9 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
@@ -791,7 +833,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -803,8 +845,8 @@
       <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>63</v>
+      <c r="F7" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>4</v>
@@ -825,13 +867,15 @@
         <v>30</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -841,8 +885,10 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -860,8 +906,8 @@
         <v>27</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>58</v>
+      <c r="F10" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -877,12 +923,14 @@
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G11" s="3" t="s">
         <v>4</v>
       </c>
@@ -900,7 +948,9 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
@@ -910,7 +960,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -921,7 +971,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>4</v>
@@ -934,7 +984,7 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -946,7 +996,9 @@
       <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -966,7 +1018,9 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
@@ -986,8 +1040,8 @@
         <v>31</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>60</v>
+      <c r="F16" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>4</v>
@@ -1004,7 +1058,9 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1023,7 +1079,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
@@ -1044,7 +1100,9 @@
         <v>29</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1053,11 +1111,18 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -1109,7 +1174,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1236,6 +1301,7 @@
     <hyperlink ref="G21" r:id="rId9" xr:uid="{0CC72EB1-473A-6E49-81BA-3FB093A4AB85}"/>
     <hyperlink ref="G22" r:id="rId10" xr:uid="{2F42F296-9E54-8D48-A861-F71A0454CDFE}"/>
     <hyperlink ref="H13" r:id="rId11" xr:uid="{ADADD161-F48B-7F40-A7CB-B4A82DDACDA0}"/>
+    <hyperlink ref="G9" r:id="rId12" xr:uid="{735DF5C2-CCD6-0A4D-999F-53DC166DD9C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/lrp_data_legend.xlsx
+++ b/data/lrp_data_legend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/rlp_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B1D632-C6FB-5D45-90E8-E7AFF0F1B347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA499FA-6848-0A40-9392-34E7CEACA1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11060" yWindow="3200" windowWidth="23500" windowHeight="17440" xr2:uid="{5B21510A-2186-C449-9A1B-808F36C921CB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t>Number</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>REMOVED NON LIGAND-RECEPTOR INTERACTIONS, still neuronal</t>
+  </si>
+  <si>
+    <t>CCIDB_Human_new.xlsx</t>
   </si>
 </sst>
 </file>
@@ -695,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D106CA5-723D-F641-B630-1737F9CADC3E}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1115,7 +1118,9 @@
         <v>60</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
         <v>62</v>

--- a/data/lrp_data_legend.xlsx
+++ b/data/lrp_data_legend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/rlp_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA499FA-6848-0A40-9392-34E7CEACA1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BF91FE-5F92-924D-933C-C92E155C5A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11060" yWindow="3200" windowWidth="23500" windowHeight="17440" xr2:uid="{5B21510A-2186-C449-9A1B-808F36C921CB}"/>
   </bookViews>
@@ -227,9 +227,6 @@
     <t>REMOVED NON LIGAND-RECEPTOR INTERACTIONS</t>
   </si>
   <si>
-    <t>consider ECM?</t>
-  </si>
-  <si>
     <t>Cell cell comunication CCC</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>CCIDB_Human_new.xlsx</t>
+  </si>
+  <si>
+    <t>consider ECM? NO ECM-ECM</t>
   </si>
 </sst>
 </file>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D106CA5-723D-F641-B630-1737F9CADC3E}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,7 +751,7 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
@@ -769,7 +769,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>4</v>
@@ -787,7 +787,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>4</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>4</v>
@@ -825,7 +825,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>4</v>
@@ -849,7 +849,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>4</v>
@@ -871,7 +871,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
@@ -889,7 +889,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>4</v>
@@ -910,7 +910,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="9" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -932,7 +932,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>4</v>
@@ -952,7 +952,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -974,7 +974,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>4</v>
@@ -1000,7 +1000,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1022,7 +1022,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>4</v>
@@ -1062,7 +1062,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>4</v>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>4</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">

--- a/data/lrp_data_legend.xlsx
+++ b/data/lrp_data_legend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/rlp_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BF91FE-5F92-924D-933C-C92E155C5A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF34DB3-92A4-3342-BB6B-FC9A30DAB201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11060" yWindow="3200" windowWidth="23500" windowHeight="17440" xr2:uid="{5B21510A-2186-C449-9A1B-808F36C921CB}"/>
   </bookViews>
@@ -230,9 +230,6 @@
     <t>Cell cell comunication CCC</t>
   </si>
   <si>
-    <t>CHECK LIGAND RECEPTOR POSITION. CHECK INTERACTIONS!</t>
-  </si>
-  <si>
     <t>LR PAIRS</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>consider ECM? NO ECM-ECM</t>
+  </si>
+  <si>
+    <t>ONLY LRP KEPT</t>
   </si>
 </sst>
 </file>
@@ -346,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -361,6 +361,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -698,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D106CA5-723D-F641-B630-1737F9CADC3E}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,7 +752,7 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
@@ -769,7 +770,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>4</v>
@@ -787,7 +788,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>4</v>
@@ -807,7 +808,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>4</v>
@@ -825,7 +826,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>4</v>
@@ -849,7 +850,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>4</v>
@@ -871,7 +872,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
@@ -889,7 +890,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>4</v>
@@ -909,8 +910,8 @@
         <v>27</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="9" t="s">
-        <v>75</v>
+      <c r="F10" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -932,7 +933,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>4</v>
@@ -952,7 +953,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -974,7 +975,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>4</v>
@@ -1000,7 +1001,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1022,7 +1023,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -1043,8 +1044,8 @@
         <v>31</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="9" t="s">
-        <v>64</v>
+      <c r="F16" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>4</v>
@@ -1104,7 +1105,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>4</v>
@@ -1119,7 +1120,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">

--- a/data/lrp_data_legend.xlsx
+++ b/data/lrp_data_legend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/rlp_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF34DB3-92A4-3342-BB6B-FC9A30DAB201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9423BEB6-4CA8-454D-81FC-95D11C2A03F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11060" yWindow="3200" windowWidth="23500" windowHeight="17440" xr2:uid="{5B21510A-2186-C449-9A1B-808F36C921CB}"/>
   </bookViews>
@@ -246,9 +246,6 @@
     <t>incorporates intracellular signaling</t>
   </si>
   <si>
-    <t>CHECK DIRECTIONALITY with protein input, complex removed</t>
-  </si>
-  <si>
     <t>receptor-ligand pairs</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>ONLY LRP KEPT</t>
+  </si>
+  <si>
+    <t>CHECKed DIRECTIONALITY</t>
   </si>
 </sst>
 </file>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D106CA5-723D-F641-B630-1737F9CADC3E}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,7 +752,7 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
@@ -770,7 +770,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>4</v>
@@ -788,7 +788,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>4</v>
@@ -808,7 +808,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>4</v>
@@ -826,7 +826,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>4</v>
@@ -849,8 +849,8 @@
       <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>69</v>
+      <c r="F7" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>4</v>
@@ -910,8 +910,8 @@
         <v>27</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="12" t="s">
-        <v>74</v>
+      <c r="F10" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -1044,8 +1044,8 @@
         <v>31</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="12" t="s">
-        <v>75</v>
+      <c r="F16" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>4</v>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>4</v>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">

--- a/data/lrp_data_legend.xlsx
+++ b/data/lrp_data_legend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/rlp_meta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9423BEB6-4CA8-454D-81FC-95D11C2A03F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A252BC28-5FA9-7346-B6F4-749C667FB1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11060" yWindow="3200" windowWidth="23500" windowHeight="17440" xr2:uid="{5B21510A-2186-C449-9A1B-808F36C921CB}"/>
   </bookViews>
@@ -346,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -361,7 +361,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -699,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D106CA5-723D-F641-B630-1737F9CADC3E}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,7 +848,7 @@
       <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -1126,7 +1125,7 @@
       <c r="F20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1308,6 +1307,7 @@
     <hyperlink ref="G22" r:id="rId10" xr:uid="{2F42F296-9E54-8D48-A861-F71A0454CDFE}"/>
     <hyperlink ref="H13" r:id="rId11" xr:uid="{ADADD161-F48B-7F40-A7CB-B4A82DDACDA0}"/>
     <hyperlink ref="G9" r:id="rId12" xr:uid="{735DF5C2-CCD6-0A4D-999F-53DC166DD9C5}"/>
+    <hyperlink ref="G20" r:id="rId13" xr:uid="{42117A7A-9C62-214F-8BAE-5202E5B17992}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
